--- a/similarities/split_global/harmonic_similarity_timestamps_119.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_119.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,686 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_198</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_87</t>
+          <t>isophonics_196</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A', 'D:min']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C', 'F:min']]</t>
+          <t>['D/5', 'A', 'D/5']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:18.965464', '0:00:23.342426')]</t>
+          <t>('0:00:40.960000', '0:00:43.300000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:00.600000', '0:00:05.900000')]</t>
+          <t>('0:00:31.898979', '0:00:34.035215')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=40.96</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=0.6']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=31.898979</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>isophonics_164</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>isophonics_191</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['Eb', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['Gb', 'Bb:7', 'Eb:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:00.040000', '0:01:07.080000')]</t>
+          <t>('0:00:34.298000', '0:00:41.282000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:01.302038', '0:00:05.439841')]</t>
+          <t>('0:00:07.459977', '0:00:12.045918')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=34.298</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-191#t=7.459977</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>schubert-winterreise_47</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>schubert-winterreise_15</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj', 'A:maj', 'D:maj', 'G:maj', 'D:maj']]</t>
+          <t>['D:min', 'A:7', 'D:min', 'D:min/A', 'A:7']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'A', 'D', 'G', 'D']]</t>
+          <t>['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:47.673000', '0:02:04.556000')]</t>
+          <t>('0:00:12.340000', '0:00:41.740000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:04.063000', '0:00:14.292000')]</t>
+          <t>('0:00:36.040000', '0:00:45.580000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=107.673']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=12.34</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=4.063']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=36.04</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>isophonics_221</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>isophonics_212</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C', 'F/5', 'C']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:10.560000', '0:00:17.340000'), ('0:01:23.340000', '0:01:27.640000')]</t>
+          <t>('0:00:05.121000', '0:00:12.601000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:29.080000', '0:01:38.100000'), ('0:00:59.220000', '0:01:06.880000')]</t>
+          <t>('0:00:46.932280', '0:00:54.037586')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=89.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=46.93228</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>isophonics_108</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_20</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:min', 'Eb:7', 'Ab'], ['Bb:min', 'Eb:7', 'Ab', 'F:7']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'Bb:7', 'Eb'], ['F:min', 'Bb:7', 'Eb', 'C:7']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:06.990000', '0:00:14.210000'), ('0:00:08.340000', '0:00:14.860000')]</t>
+          <t>('0:00:01.829138', '0:00:15.586961')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:51.940000', '0:02:00.900000'), ('0:00:34.940000', '0:00:45.670000')]</t>
+          <t>('0:00:16.020000', '0:00:22.500000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=6.99', 'https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=8.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-20#t=111.94', 'https://soundcloud.com/jacopo-de-berardinis/jaah-20#t=34.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>['G/3', 'C', 'G/3', 'C']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['B', 'E', 'B', 'E']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:22.020589', '0:00:24.598004')]</t>
+          <t>('0:02:10.528000', '0:02:12.075000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:58.440000', '0:02:01.680000')]</t>
+          <t>('0:02:21.130907', '0:02:36.734716')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=130.528</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=141.130907</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'G']]</t>
+          <t>['F:min', 'A#:min/F', 'F:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D/3']]</t>
+          <t>['A#:min', 'D#:min/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:15.880793', '0:01:32.970680')]</t>
+          <t>('0:00:00.300000', '0:00:03.340000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:09.336000', '0:00:13.342000')]</t>
+          <t>('0:00:25.480000', '0:00:32.800000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=75.880793']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=0.3</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=9.336']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=25.48</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Bb:maj', 'Eb:maj', 'Bb:maj', 'Eb:maj', 'Bb:maj']]</t>
+          <t>['C:maj/E', 'G:maj/D', 'G:7/F']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['A', 'E', 'E:7']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:03:37.493000', '0:03:43.713000')]</t>
+          <t>('0:01:01.800000', '0:01:07')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:02:09.380000', '0:02:15.340000')]</t>
+          <t>('0:01:32.241000', '0:01:38.929000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=217.493']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=61.8</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=92.241</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min', 'F:7/C', 'A#']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['C:min', 'F:7/A', 'A#:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:03:46.620000', '0:03:52.800000'), ('0:00:33.260000', '0:00:35.860000')]</t>
+          <t>('0:04:11.500000', '0:04:17.660000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:00.800000', '0:00:09.280000'), ('0:00:37.200000', '0:00:44.560000')]</t>
+          <t>('0:01:05.440000', '0:01:06.820000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=33.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=37.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D#:maj', 'A#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:14.300000', '0:00:15.210000')]</t>
+          <t>('0:00:00.780000', '0:00:24.040000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:00.820000', '0:00:08.800000')]</t>
+          <t>('0:00:09.920000', '0:00:11.960000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=0.78</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=0.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=9.92</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:11.320000', '0:00:13.400000')]</t>
+          <t>('0:01:27.660000', '0:01:36.720000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:14.402743', '0:00:19.871043')]</t>
+          <t>('0:00:02.660000', '0:00:07.980000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=11.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=87.66</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=14.402743']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.66</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>schubert-winterreise_58</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['A#:maj/F', 'F:7', 'A#:maj/F']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A:min', 'E', 'A:min', 'E', 'A:min', 'E']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj/A#']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:07.400000', '0:00:18.960000')]</t>
+          <t>('0:01:27.280000', '0:01:32.660000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:38.841000', '0:00:46.833000')]</t>
+          <t>('0:01:26.260000', '0:01:32.700000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=87.28</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=38.841']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=86.26</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'F#']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
+          <t>['F:maj/A', 'A#:maj', 'F:maj/C']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:14.928466', '0:00:21.522933')]</t>
+          <t>('0:00:54.180000', '0:01:01.460000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:17.340000', '0:00:24.400000')]</t>
+          <t>('0:01:01.480000', '0:01:03.580000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-89#t=14.928466']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_191</t>
+          <t>isophonics_136</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>isophonics_58</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:min', 'Ab:min']]</t>
+          <t>['D', 'A', 'E/4', 'D/5', 'A']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>['F', 'C', 'G', 'F', 'C']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:08.620975', '0:00:14.367913')]</t>
+          <t>('0:00:37.280000', '0:00:44.796000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:07.400000', '0:00:19.820000')]</t>
+          <t>('0:00:41.895260', '0:00:59.802639')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-191#t=8.620975']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=37.28</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=7.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=41.89526</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_64</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_38</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G:7']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:min7', 'G:7', 'C:7']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:24.030000', '0:00:27.300000')]</t>
+          <t>('0:00:10.260000', '0:00:15.940000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:00.280000', '0:01:07.560000')]</t>
+          <t>('0:00:00.340000', '0:00:04.840000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-64#t=24.03']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=10.26</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-38#t=60.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=0.34</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
